--- a/myapp/files/9_MethodComparePercent/Scenario 363.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 363.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>4025</v>
+        <v>19179</v>
       </c>
       <c r="F2" t="n">
-        <v>4.58010923987255</v>
+        <v>2.69475843560976</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.77358490566038</v>
+        <v>1.68918918918919</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2628</v>
+        <v>20862</v>
       </c>
       <c r="F3" t="n">
-        <v>2.99044151115157</v>
+        <v>2.93122949495233</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>5.66037735849057</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1755</v>
+        <v>18659</v>
       </c>
       <c r="F4" t="n">
-        <v>1.99704142011834</v>
+        <v>2.62169548203986</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.88679245283019</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>4033</v>
+        <v>16493</v>
       </c>
       <c r="F5" t="n">
-        <v>4.58921256258534</v>
+        <v>2.31736017928525</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,16 +707,16 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>5.66037735849057</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.47058823529412</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>4291</v>
+        <v>17942</v>
       </c>
       <c r="F6" t="n">
-        <v>4.88279472007283</v>
+        <v>2.52095290952137</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,16 +745,16 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.77358490566038</v>
+        <v>2.02702702702703</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>5.88235294117647</v>
+        <v>4.41176470588235</v>
       </c>
     </row>
     <row r="7">
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>17505</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.45955192738666</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.35135135135135</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>660</v>
+        <v>26758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.751024123805189</v>
+        <v>3.75965098389102</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>1.88679245283019</v>
+        <v>3.71621621621622</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>3082</v>
+        <v>45127</v>
       </c>
       <c r="F9" t="n">
-        <v>3.50705507510241</v>
+        <v>6.34059981874767</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>3.77358490566038</v>
+        <v>6.08108108108108</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1271</v>
+        <v>25109</v>
       </c>
       <c r="F10" t="n">
-        <v>1.44629039599454</v>
+        <v>3.52795711766648</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>1.88679245283019</v>
+        <v>6.08108108108108</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>21747</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.0555770217011</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.05405405405405</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>15662</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.20059995925335</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.35135135135135</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>195</v>
+        <v>28710</v>
       </c>
       <c r="F13" t="n">
-        <v>0.22189349112426</v>
+        <v>4.03391807113803</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1.88679245283019</v>
+        <v>3.37837837837838</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9285</v>
+        <v>61280</v>
       </c>
       <c r="F14" t="n">
-        <v>10.5655439235321</v>
+        <v>8.6101880668526</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -1049,10 +1049,10 @@
         <v>13.2352941176471</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>9.43396226415094</v>
+        <v>8.10810810810811</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>6014</v>
+        <v>58692</v>
       </c>
       <c r="F15" t="n">
-        <v>6.84342284934001</v>
+        <v>8.24655936716242</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1087,10 +1087,10 @@
         <v>13.2352941176471</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>9.43396226415094</v>
+        <v>9.45945945945946</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>5908</v>
+        <v>49968</v>
       </c>
       <c r="F16" t="n">
-        <v>6.72280382339554</v>
+        <v>7.02078781534744</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>7.35294117647059</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>9.43396226415094</v>
+        <v>6.75675675675676</v>
       </c>
       <c r="K16" t="n">
         <v>9</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>10839</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.52294106489255</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.01351351351351</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>19290</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.71035456608333</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.36486486486486</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>6677</v>
+        <v>36999</v>
       </c>
       <c r="F19" t="n">
-        <v>7.59786071916249</v>
+        <v>5.19856965217819</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>3.77358490566038</v>
+        <v>5.40540540540541</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>6817</v>
+        <v>45376</v>
       </c>
       <c r="F20" t="n">
-        <v>7.75716886663632</v>
+        <v>6.37558573305326</v>
       </c>
       <c r="G20" t="n">
         <v>13</v>
@@ -1277,10 +1277,10 @@
         <v>19.1176470588235</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>5.66037735849057</v>
+        <v>6.75675675675676</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>5487</v>
+        <v>37051</v>
       </c>
       <c r="F21" t="n">
-        <v>6.24374146563496</v>
+        <v>5.20587594753518</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1315,10 +1315,10 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>7.54716981132075</v>
+        <v>6.08108108108108</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1750</v>
+        <v>11947</v>
       </c>
       <c r="F22" t="n">
-        <v>1.99135184342285</v>
+        <v>1.67862135826841</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.88679245283019</v>
+        <v>1.35135135135135</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2725</v>
+        <v>18726</v>
       </c>
       <c r="F23" t="n">
-        <v>3.10081929904415</v>
+        <v>2.63110936259598</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.77358490566038</v>
+        <v>2.36486486486486</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>6075</v>
+        <v>24193</v>
       </c>
       <c r="F24" t="n">
-        <v>6.91283568502503</v>
+        <v>3.39925391483951</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>3.77358490566038</v>
+        <v>3.71621621621622</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>6363</v>
+        <v>32470</v>
       </c>
       <c r="F25" t="n">
-        <v>7.24055530268548</v>
+        <v>4.56221942772037</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,10 +1467,10 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>5.66037735849057</v>
+        <v>4.39189189189189</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>8839</v>
+        <v>31131</v>
       </c>
       <c r="F26" t="n">
-        <v>10.058033682294</v>
+        <v>4.37408232227788</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1505,10 +1505,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>9.43396226415094</v>
+        <v>4.39189189189189</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
